--- a/write-ups/cikm/clustering.xlsx
+++ b/write-ups/cikm/clustering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="28560" windowHeight="15400" tabRatio="500" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="28560" windowHeight="15400" tabRatio="500" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="BUGGY_Jaccard+NoCos" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="HandOpt_JaccardVs" sheetId="13" r:id="rId13"/>
     <sheet name="SimConf_all" sheetId="14" r:id="rId14"/>
     <sheet name="RuntimeHandOptJaccard" sheetId="15" r:id="rId15"/>
+    <sheet name="ClustClosed=ParentClosed" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="289">
   <si>
     <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_oct-nov-dec/, Jaccard+NoCos_conf0.1_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.66 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.1]</t>
   </si>
@@ -884,6 +885,45 @@
   </si>
   <si>
     <t>Total Time</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.05_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.05]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.1_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.1]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.25_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.25]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.2_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.2]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.3_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.3]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.4_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.4]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.5_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.5]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.6_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.6]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.75_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.75]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.7_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.7]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.8_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.8]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.95_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.95]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.9_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.9]</t>
   </si>
 </sst>
 </file>
@@ -1363,11 +1403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2107985960"/>
-        <c:axId val="-2108314376"/>
+        <c:axId val="2120096040"/>
+        <c:axId val="2120106760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107985960"/>
+        <c:axId val="2120096040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108314376"/>
+        <c:crossAx val="2120106760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1384,7 +1424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108314376"/>
+        <c:axId val="2120106760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107985960"/>
+        <c:crossAx val="2120096040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,11 +1530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2094175096"/>
-        <c:axId val="-2113792584"/>
+        <c:axId val="2122045080"/>
+        <c:axId val="2122048024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094175096"/>
+        <c:axId val="2122045080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113792584"/>
+        <c:crossAx val="2122048024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1511,7 +1551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113792584"/>
+        <c:axId val="2122048024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,14 +1562,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094175096"/>
+        <c:crossAx val="2122045080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1618,11 +1657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112627272"/>
-        <c:axId val="-2091814552"/>
+        <c:axId val="2122072872"/>
+        <c:axId val="2122075816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112627272"/>
+        <c:axId val="2122072872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091814552"/>
+        <c:crossAx val="2122075816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1639,7 +1678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091814552"/>
+        <c:axId val="2122075816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,14 +1689,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112627272"/>
+        <c:crossAx val="2122072872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1743,11 +1781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120641768"/>
-        <c:axId val="-2123228712"/>
+        <c:axId val="2122111704"/>
+        <c:axId val="2122114648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120641768"/>
+        <c:axId val="2122111704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123228712"/>
+        <c:crossAx val="2122114648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1764,7 +1802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123228712"/>
+        <c:axId val="2122114648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,14 +1813,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120641768"/>
+        <c:crossAx val="2122111704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1868,11 +1905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123156040"/>
-        <c:axId val="-2122657560"/>
+        <c:axId val="2122138456"/>
+        <c:axId val="2122141400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123156040"/>
+        <c:axId val="2122138456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122657560"/>
+        <c:crossAx val="2122141400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1889,7 +1926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122657560"/>
+        <c:axId val="2122141400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,14 +1937,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123156040"/>
+        <c:crossAx val="2122138456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2040,11 +2076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126733880"/>
-        <c:axId val="-2126879176"/>
+        <c:axId val="2122181032"/>
+        <c:axId val="2122184008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126733880"/>
+        <c:axId val="2122181032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126879176"/>
+        <c:crossAx val="2122184008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2061,7 +2097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126879176"/>
+        <c:axId val="2122184008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,14 +2108,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126733880"/>
+        <c:crossAx val="2122181032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2162,8 +2197,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="-2120689560"/>
-        <c:axId val="-2122713976"/>
+        <c:axId val="2119191272"/>
+        <c:axId val="2119188280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2328,11 +2363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120689560"/>
-        <c:axId val="-2122713976"/>
+        <c:axId val="2119191272"/>
+        <c:axId val="2119188280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120689560"/>
+        <c:axId val="2119191272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +2377,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122713976"/>
+        <c:crossAx val="2119188280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2350,7 +2385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122713976"/>
+        <c:axId val="2119188280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,14 +2396,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120689560"/>
+        <c:crossAx val="2119191272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2582,11 +2616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127150040"/>
-        <c:axId val="-2126551624"/>
+        <c:axId val="2122460968"/>
+        <c:axId val="2122463944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127150040"/>
+        <c:axId val="2122460968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,7 +2629,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126551624"/>
+        <c:crossAx val="2122463944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2603,7 +2637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126551624"/>
+        <c:axId val="2122463944"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2638,7 +2672,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127150040"/>
+        <c:crossAx val="2122460968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2855,11 +2889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123139944"/>
-        <c:axId val="-2057269512"/>
+        <c:axId val="2122499784"/>
+        <c:axId val="2122502760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123139944"/>
+        <c:axId val="2122499784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2902,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057269512"/>
+        <c:crossAx val="2122502760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2876,7 +2910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057269512"/>
+        <c:axId val="2122502760"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2907,7 +2941,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123139944"/>
+        <c:crossAx val="2122499784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3155,11 +3189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2113268984"/>
-        <c:axId val="-2113044520"/>
+        <c:axId val="2120151000"/>
+        <c:axId val="2120153976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113268984"/>
+        <c:axId val="2120151000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +3203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113044520"/>
+        <c:crossAx val="2120153976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,7 +3211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113044520"/>
+        <c:axId val="2120153976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3188,7 +3222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113268984"/>
+        <c:crossAx val="2120151000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3333,11 +3367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2121514328"/>
-        <c:axId val="-2121410648"/>
+        <c:axId val="2120187352"/>
+        <c:axId val="2120190328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2121514328"/>
+        <c:axId val="2120187352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3346,7 +3380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121410648"/>
+        <c:crossAx val="2120190328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3354,7 +3388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121410648"/>
+        <c:axId val="2120190328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3365,14 +3399,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121514328"/>
+        <c:crossAx val="2120187352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3461,11 +3494,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2115574936"/>
-        <c:axId val="-2107860232"/>
+        <c:axId val="2119282744"/>
+        <c:axId val="2119280056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115574936"/>
+        <c:axId val="2119282744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,7 +3507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107860232"/>
+        <c:crossAx val="2119280056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3482,7 +3515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107860232"/>
+        <c:axId val="2119280056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,14 +3526,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115574936"/>
+        <c:crossAx val="2119282744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3684,11 +3716,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-2086047096"/>
-        <c:axId val="-2084568328"/>
+        <c:axId val="2083483288"/>
+        <c:axId val="2083486408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2086047096"/>
+        <c:axId val="2083483288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3697,7 +3729,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084568328"/>
+        <c:crossAx val="2083486408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3705,7 +3737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084568328"/>
+        <c:axId val="2083486408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3715,14 +3747,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086047096"/>
+        <c:crossAx val="2083483288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3799,11 +3830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088297448"/>
-        <c:axId val="-2086302248"/>
+        <c:axId val="2082589768"/>
+        <c:axId val="2082579832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088297448"/>
+        <c:axId val="2082589768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3812,7 +3843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086302248"/>
+        <c:crossAx val="2082579832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3820,7 +3851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086302248"/>
+        <c:axId val="2082579832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3831,14 +3862,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088297448"/>
+        <c:crossAx val="2082589768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3977,11 +4007,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-2081935608"/>
-        <c:axId val="-2114659656"/>
+        <c:axId val="2082546824"/>
+        <c:axId val="2082543688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2081935608"/>
+        <c:axId val="2082546824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3990,7 +4020,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114659656"/>
+        <c:crossAx val="2082543688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3998,7 +4028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114659656"/>
+        <c:axId val="2082543688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,14 +4038,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081935608"/>
+        <c:crossAx val="2082546824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4045,7 +4074,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4203,11 +4231,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="-2116215704"/>
-        <c:axId val="-2116213832"/>
+        <c:axId val="2082491752"/>
+        <c:axId val="2082488616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116215704"/>
+        <c:axId val="2082491752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,7 +4244,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116213832"/>
+        <c:crossAx val="2082488616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4224,7 +4252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116213832"/>
+        <c:axId val="2082488616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,7 +4262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116215704"/>
+        <c:crossAx val="2082491752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4245,7 +4273,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4275,7 +4302,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4352,11 +4378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2091895464"/>
-        <c:axId val="-2091204632"/>
+        <c:axId val="2119248920"/>
+        <c:axId val="2119245912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2091895464"/>
+        <c:axId val="2119248920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4365,7 +4391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091204632"/>
+        <c:crossAx val="2119245912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4373,7 +4399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091204632"/>
+        <c:axId val="2119245912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,14 +4410,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091895464"/>
+        <c:crossAx val="2119248920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8414,7 +8439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
@@ -8844,6 +8869,213 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4">
+        <v>555</v>
+      </c>
+      <c r="D4">
+        <v>288.42882882882901</v>
+      </c>
+      <c r="E4">
+        <v>87.934090212784199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5">
+        <v>555</v>
+      </c>
+      <c r="D5">
+        <v>259.46126126126097</v>
+      </c>
+      <c r="E5">
+        <v>76.873752722318201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6">
+        <v>555</v>
+      </c>
+      <c r="D6">
+        <v>220.93153153153199</v>
+      </c>
+      <c r="E6">
+        <v>63.676378855777202</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7">
+        <v>555</v>
+      </c>
+      <c r="D7">
+        <v>227.99459459459499</v>
+      </c>
+      <c r="E7">
+        <v>68.089066004440198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8">
+        <v>555</v>
+      </c>
+      <c r="D8">
+        <v>217.54234234234201</v>
+      </c>
+      <c r="E8">
+        <v>61.451776681552602</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9">
+        <v>555</v>
+      </c>
+      <c r="D9">
+        <v>212.70810810810801</v>
+      </c>
+      <c r="E9">
+        <v>56.896490877839902</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10">
+        <v>555</v>
+      </c>
+      <c r="D10">
+        <v>210.52972972973001</v>
+      </c>
+      <c r="E10">
+        <v>53.805845968594703</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11">
+        <v>555</v>
+      </c>
+      <c r="D11">
+        <v>216.97117117117099</v>
+      </c>
+      <c r="E11">
+        <v>60.9256447273969</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12">
+        <v>555</v>
+      </c>
+      <c r="D12">
+        <v>228.79819819819801</v>
+      </c>
+      <c r="E12">
+        <v>67.802343311131196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13">
+        <v>555</v>
+      </c>
+      <c r="D13">
+        <v>224.24684684684701</v>
+      </c>
+      <c r="E13">
+        <v>65.586622276407297</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14">
+        <v>555</v>
+      </c>
+      <c r="D14">
+        <v>235.53513513513499</v>
+      </c>
+      <c r="E14">
+        <v>71.048949222888993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15">
+        <v>555</v>
+      </c>
+      <c r="D15">
+        <v>297.241441441441</v>
+      </c>
+      <c r="E15">
+        <v>90.125580725827206</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16">
+        <v>555</v>
+      </c>
+      <c r="D16">
+        <v>268.50990990990999</v>
+      </c>
+      <c r="E16">
+        <v>80.000098098941393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/write-ups/cikm/clustering.xlsx
+++ b/write-ups/cikm/clustering.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="28560" windowHeight="15400" tabRatio="500" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="28560" windowHeight="15400" tabRatio="500" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="BUGGY_Jaccard+NoCos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="HandOpt_JaccardVs" sheetId="13" r:id="rId13"/>
     <sheet name="SimConf_all" sheetId="14" r:id="rId14"/>
     <sheet name="RuntimeHandOptJaccard" sheetId="15" r:id="rId15"/>
-    <sheet name="ClustClosed=ParentClosed" sheetId="16" r:id="rId16"/>
+    <sheet name="ParentClosed" sheetId="16" r:id="rId16"/>
+    <sheet name="SiblingSize50" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="309">
   <si>
     <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_oct-nov-dec/, Jaccard+NoCos_conf0.1_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.66 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.1]</t>
   </si>
@@ -887,43 +888,105 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.05_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.05]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.1_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.1]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.25_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.25]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.2_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.2]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.3_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.3]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.4_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.4]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.5_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.5]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.6_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.6]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.75_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.75]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.7_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.7]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.8_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.8]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.95_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.95]</t>
-  </si>
-  <si>
-    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ClustClosed_conf0.9_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.9]</t>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.05_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.05]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.1_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.1]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.25_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.25]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.2_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.2]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.3_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.3]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.4_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.4]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.5_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.5]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.6_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.6]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.75_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.75]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.7_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.7]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.8_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.8]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.95_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.95]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, ParentClosed_conf0.9_Buff1000,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.9]</t>
+  </si>
+  <si>
+    <t>select args, count(*), avg(value), stddev(value) from perf_mon where args like '%nondist%ParentClosed%' and key = 'StrongClosedaIS' group by args order by args;</t>
+  </si>
+  <si>
+    <t>highconf</t>
+  </si>
+  <si>
+    <t>select args, count(*), avg(value), stddev(value) from perf_mon where args like '%nondist%ParentClosed%' and key = 'HighConfidenceIS' group by args order by args;</t>
+  </si>
+  <si>
+    <t>confParen2_KMean</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.05_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.05]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.1_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.1]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.2_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.2]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.3_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.3]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.4_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.4]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.5_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.5]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.6_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.6]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.7_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.7]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.8_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.8]</t>
+  </si>
+  <si>
+    <t>[/home/yaboulna/fim_out/lcm_closed_cikm/4wk+1wk_ngram5-relsupp1_oct-nov-dec/, /home/yaboulna/fim_out/lcm_closed_cikm/1hr+30min_ngram5-relsupp10_11032233-11151120_cluster-nondistinct/, MaxSiblings50_conf0.9_Buff1000_MaxSiblings50,  ITEMSET_SIMILARITY_COSINE_GOOD_THRESHOLD=0.33 ITEMSET_SIMILARITY_PROMISING_THRESHOLD=0.0 ITEMSET_SIMILARITY_PPJOIN_MIN_LENGTH=3 ITEMSET_SIMILARITY_BAD_THRESHOLD=0.1 CONFIDENCE_HIGH_THRESHOLD=0.9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select args, count(*), avg(value), stddev(value) from perf_mon where args like '%Buff1000%MaxSiblings50%' and key = 'confParen2_KMean' group by args order by args;
+</t>
+  </si>
+  <si>
+    <t>select args, count(*), avg(value), stddev(value) from perf_mon where args like '%Buff1000%MaxSiblings50%' and key = 'confParen1_2KMean' group by args order by args;</t>
+  </si>
+  <si>
+    <t>confParen1_2KMean</t>
+  </si>
+  <si>
+    <t>confParen2_KN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select args, count(*), avg(value), stddev(value) from perf_mon where args like '%Buff1000%MaxSiblings50%' and key = 'confParen2_KN' group by args order by args;
+</t>
+  </si>
+  <si>
+    <t>FilteredItemsets</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1042,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1147,15 +1210,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1239,6 +1311,9 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1322,6 +1397,9 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1403,11 +1481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120096040"/>
-        <c:axId val="2120106760"/>
+        <c:axId val="2118660600"/>
+        <c:axId val="2118671400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120096040"/>
+        <c:axId val="2118660600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120106760"/>
+        <c:crossAx val="2118671400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1424,7 +1502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120106760"/>
+        <c:axId val="2118671400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120096040"/>
+        <c:crossAx val="2118660600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1530,11 +1608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122045080"/>
-        <c:axId val="2122048024"/>
+        <c:axId val="2119031688"/>
+        <c:axId val="2119034648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122045080"/>
+        <c:axId val="2119031688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122048024"/>
+        <c:crossAx val="2119034648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1551,7 +1629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122048024"/>
+        <c:axId val="2119034648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122045080"/>
+        <c:crossAx val="2119031688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,11 +1735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122072872"/>
-        <c:axId val="2122075816"/>
+        <c:axId val="2119058776"/>
+        <c:axId val="2119061736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122072872"/>
+        <c:axId val="2119058776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122075816"/>
+        <c:crossAx val="2119061736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122075816"/>
+        <c:axId val="2119061736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122072872"/>
+        <c:crossAx val="2119058776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,11 +1859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122111704"/>
-        <c:axId val="2122114648"/>
+        <c:axId val="2118045208"/>
+        <c:axId val="2118048168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122111704"/>
+        <c:axId val="2118045208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122114648"/>
+        <c:crossAx val="2118048168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1802,7 +1880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122114648"/>
+        <c:axId val="2118048168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122111704"/>
+        <c:crossAx val="2118045208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1905,11 +1983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122138456"/>
-        <c:axId val="2122141400"/>
+        <c:axId val="2118071960"/>
+        <c:axId val="2118074920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122138456"/>
+        <c:axId val="2118071960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122141400"/>
+        <c:crossAx val="2118074920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +2004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122141400"/>
+        <c:axId val="2118074920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +2015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122138456"/>
+        <c:crossAx val="2118071960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2076,11 +2154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122181032"/>
-        <c:axId val="2122184008"/>
+        <c:axId val="2117346008"/>
+        <c:axId val="2117343016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122181032"/>
+        <c:axId val="2117346008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122184008"/>
+        <c:crossAx val="2117343016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2097,7 +2175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122184008"/>
+        <c:axId val="2117343016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122181032"/>
+        <c:crossAx val="2117346008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2197,8 +2275,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2119191272"/>
-        <c:axId val="2119188280"/>
+        <c:axId val="2117295176"/>
+        <c:axId val="2117292184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2363,11 +2441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119191272"/>
-        <c:axId val="2119188280"/>
+        <c:axId val="2117295176"/>
+        <c:axId val="2117292184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119191272"/>
+        <c:axId val="2117295176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2455,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119188280"/>
+        <c:crossAx val="2117292184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2385,7 +2463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119188280"/>
+        <c:axId val="2117292184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,13 +2474,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119191272"/>
+        <c:crossAx val="2117295176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2616,11 +2695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122460968"/>
-        <c:axId val="2122463944"/>
+        <c:axId val="2117250440"/>
+        <c:axId val="2117247448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122460968"/>
+        <c:axId val="2117250440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,7 +2708,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122463944"/>
+        <c:crossAx val="2117247448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2637,7 +2716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122463944"/>
+        <c:axId val="2117247448"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2665,21 +2744,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122460968"/>
+        <c:crossAx val="2117250440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2889,11 +2966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122499784"/>
-        <c:axId val="2122502760"/>
+        <c:axId val="2117211416"/>
+        <c:axId val="2117208424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122499784"/>
+        <c:axId val="2117211416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,7 +2979,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122502760"/>
+        <c:crossAx val="2117208424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2910,7 +2987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122502760"/>
+        <c:axId val="2117208424"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2934,21 +3011,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122499784"/>
+        <c:crossAx val="2117211416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2968,6 +3043,146 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ParentClosed!$D$4:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>288.187387387387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>259.028828828829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.996396396396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225.846846846847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208.255855855856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191.513513513514</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.117117117117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.727927927928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.293693693694</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145.987387387387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.621621621622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.8216216216216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.5171171171171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2124971832"/>
+        <c:axId val="2124886824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2124971832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124886824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2124886824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124971832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -3189,11 +3404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120151000"/>
-        <c:axId val="2120153976"/>
+        <c:axId val="2118715592"/>
+        <c:axId val="2118718568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120151000"/>
+        <c:axId val="2118715592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,7 +3418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120153976"/>
+        <c:crossAx val="2118718568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3211,7 +3426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120153976"/>
+        <c:axId val="2118718568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,7 +3437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120151000"/>
+        <c:crossAx val="2118715592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3367,11 +3582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120187352"/>
-        <c:axId val="2120190328"/>
+        <c:axId val="2118759688"/>
+        <c:axId val="2118762664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120187352"/>
+        <c:axId val="2118759688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,7 +3595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120190328"/>
+        <c:crossAx val="2118762664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3388,7 +3603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120190328"/>
+        <c:axId val="2118762664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120187352"/>
+        <c:crossAx val="2118759688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3494,11 +3709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119282744"/>
-        <c:axId val="2119280056"/>
+        <c:axId val="2118785720"/>
+        <c:axId val="2118788680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119282744"/>
+        <c:axId val="2118785720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,7 +3722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119280056"/>
+        <c:crossAx val="2118788680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3515,7 +3730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119280056"/>
+        <c:axId val="2118788680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3526,7 +3741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119282744"/>
+        <c:crossAx val="2118785720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3716,11 +3931,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2083483288"/>
-        <c:axId val="2083486408"/>
+        <c:axId val="2118831240"/>
+        <c:axId val="2118834360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2083483288"/>
+        <c:axId val="2118831240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,7 +3944,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083486408"/>
+        <c:crossAx val="2118834360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3737,7 +3952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083486408"/>
+        <c:axId val="2118834360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3747,7 +3962,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083483288"/>
+        <c:crossAx val="2118831240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3830,11 +4045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082589768"/>
-        <c:axId val="2082579832"/>
+        <c:axId val="2118866504"/>
+        <c:axId val="2118869512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082589768"/>
+        <c:axId val="2118866504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +4058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082579832"/>
+        <c:crossAx val="2118869512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3851,7 +4066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082579832"/>
+        <c:axId val="2118869512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3862,7 +4077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082589768"/>
+        <c:crossAx val="2118866504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4007,11 +4222,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2082546824"/>
-        <c:axId val="2082543688"/>
+        <c:axId val="2118902520"/>
+        <c:axId val="2118905640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082546824"/>
+        <c:axId val="2118902520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4020,7 +4235,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082543688"/>
+        <c:crossAx val="2118905640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4028,7 +4243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082543688"/>
+        <c:axId val="2118905640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,7 +4253,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082546824"/>
+        <c:crossAx val="2118902520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4231,11 +4446,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2082491752"/>
-        <c:axId val="2082488616"/>
+        <c:axId val="2118952344"/>
+        <c:axId val="2118955464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082491752"/>
+        <c:axId val="2118952344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4459,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082488616"/>
+        <c:crossAx val="2118955464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4252,7 +4467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082488616"/>
+        <c:axId val="2118955464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4262,7 +4477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082491752"/>
+        <c:crossAx val="2118952344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4378,11 +4593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119248920"/>
-        <c:axId val="2119245912"/>
+        <c:axId val="2118982456"/>
+        <c:axId val="2118985096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119248920"/>
+        <c:axId val="2118982456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4391,7 +4606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119245912"/>
+        <c:crossAx val="2118985096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4399,7 +4614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119245912"/>
+        <c:axId val="2118985096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,7 +4625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119248920"/>
+        <c:crossAx val="2118982456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4558,6 +4773,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1835150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6883,8 +7133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8879,20 +9129,29 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E16"/>
+  <dimension ref="B3:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:12" ht="255">
       <c r="B3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>276</v>
       </c>
@@ -8900,13 +9159,25 @@
         <v>555</v>
       </c>
       <c r="D4">
-        <v>288.42882882882901</v>
+        <v>288.18738738738699</v>
       </c>
       <c r="E4">
-        <v>87.934090212784199</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>87.645253461629494</v>
+      </c>
+      <c r="I4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4">
+        <v>555</v>
+      </c>
+      <c r="K4">
+        <v>341.75315315315299</v>
+      </c>
+      <c r="L4">
+        <v>108.605047236148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>277</v>
       </c>
@@ -8914,13 +9185,25 @@
         <v>555</v>
       </c>
       <c r="D5">
-        <v>259.46126126126097</v>
+        <v>259.02882882882898</v>
       </c>
       <c r="E5">
-        <v>76.873752722318201</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>76.376933628570995</v>
+      </c>
+      <c r="I5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5">
+        <v>555</v>
+      </c>
+      <c r="K5">
+        <v>341.54054054054097</v>
+      </c>
+      <c r="L5">
+        <v>108.377197951453</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>278</v>
       </c>
@@ -8928,13 +9211,25 @@
         <v>555</v>
       </c>
       <c r="D6">
-        <v>220.93153153153199</v>
+        <v>215.99639639639599</v>
       </c>
       <c r="E6">
-        <v>63.676378855777202</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>60.0078814437408</v>
+      </c>
+      <c r="I6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6">
+        <v>555</v>
+      </c>
+      <c r="K6">
+        <v>336.22522522522502</v>
+      </c>
+      <c r="L6">
+        <v>104.85538301918</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
         <v>279</v>
       </c>
@@ -8942,13 +9237,25 @@
         <v>555</v>
       </c>
       <c r="D7">
-        <v>227.99459459459499</v>
+        <v>225.846846846847</v>
       </c>
       <c r="E7">
-        <v>68.089066004440198</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>66.323787081404404</v>
+      </c>
+      <c r="I7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7">
+        <v>555</v>
+      </c>
+      <c r="K7">
+        <v>339.58918918918903</v>
+      </c>
+      <c r="L7">
+        <v>106.97891366787201</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" t="s">
         <v>280</v>
       </c>
@@ -8956,13 +9263,25 @@
         <v>555</v>
       </c>
       <c r="D8">
-        <v>217.54234234234201</v>
+        <v>208.255855855856</v>
       </c>
       <c r="E8">
-        <v>61.451776681552602</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>54.737899747027598</v>
+      </c>
+      <c r="I8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J8">
+        <v>555</v>
+      </c>
+      <c r="K8">
+        <v>330.924324324324</v>
+      </c>
+      <c r="L8">
+        <v>101.472843387605</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" t="s">
         <v>281</v>
       </c>
@@ -8970,13 +9289,25 @@
         <v>555</v>
       </c>
       <c r="D9">
-        <v>212.70810810810801</v>
+        <v>191.513513513514</v>
       </c>
       <c r="E9">
-        <v>56.896490877839902</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>43.6934812577339</v>
+      </c>
+      <c r="I9" t="s">
+        <v>281</v>
+      </c>
+      <c r="J9">
+        <v>555</v>
+      </c>
+      <c r="K9">
+        <v>316.62522522522499</v>
+      </c>
+      <c r="L9">
+        <v>93.966428128598196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
         <v>282</v>
       </c>
@@ -8984,13 +9315,25 @@
         <v>555</v>
       </c>
       <c r="D10">
-        <v>210.52972972973001</v>
+        <v>175.117117117117</v>
       </c>
       <c r="E10">
-        <v>53.805845968594703</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>35.540524167490503</v>
+      </c>
+      <c r="I10" t="s">
+        <v>282</v>
+      </c>
+      <c r="J10">
+        <v>555</v>
+      </c>
+      <c r="K10">
+        <v>299.74954954955001</v>
+      </c>
+      <c r="L10">
+        <v>87.525635103883999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" t="s">
         <v>283</v>
       </c>
@@ -8998,13 +9341,25 @@
         <v>555</v>
       </c>
       <c r="D11">
-        <v>216.97117117117099</v>
+        <v>162.72792792792799</v>
       </c>
       <c r="E11">
-        <v>60.9256447273969</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>32.495818034665497</v>
+      </c>
+      <c r="I11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11">
+        <v>555</v>
+      </c>
+      <c r="K11">
+        <v>278.68648648648701</v>
+      </c>
+      <c r="L11">
+        <v>80.602015640792601</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
         <v>284</v>
       </c>
@@ -9012,13 +9367,25 @@
         <v>555</v>
       </c>
       <c r="D12">
-        <v>228.79819819819801</v>
+        <v>135.293693693694</v>
       </c>
       <c r="E12">
-        <v>67.802343311131196</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>28.172147699582499</v>
+      </c>
+      <c r="I12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J12">
+        <v>555</v>
+      </c>
+      <c r="K12">
+        <v>234.794594594595</v>
+      </c>
+      <c r="L12">
+        <v>72.417768425471706</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" t="s">
         <v>285</v>
       </c>
@@ -9026,13 +9393,25 @@
         <v>555</v>
       </c>
       <c r="D13">
-        <v>224.24684684684701</v>
+        <v>145.987387387387</v>
       </c>
       <c r="E13">
-        <v>65.586622276407297</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>29.7337436005777</v>
+      </c>
+      <c r="I13" t="s">
+        <v>285</v>
+      </c>
+      <c r="J13">
+        <v>555</v>
+      </c>
+      <c r="K13">
+        <v>251.72972972973</v>
+      </c>
+      <c r="L13">
+        <v>75.214872217098105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
         <v>286</v>
       </c>
@@ -9040,13 +9419,25 @@
         <v>555</v>
       </c>
       <c r="D14">
-        <v>235.53513513513499</v>
+        <v>121.621621621622</v>
       </c>
       <c r="E14">
-        <v>71.048949222888993</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>26.464148507185399</v>
+      </c>
+      <c r="I14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J14">
+        <v>555</v>
+      </c>
+      <c r="K14">
+        <v>212.279279279279</v>
+      </c>
+      <c r="L14">
+        <v>68.669113384793505</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
         <v>287</v>
       </c>
@@ -9054,13 +9445,25 @@
         <v>555</v>
       </c>
       <c r="D15">
-        <v>297.241441441441</v>
+        <v>48.821621621621603</v>
       </c>
       <c r="E15">
-        <v>90.125580725827206</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>14.357562601771599</v>
+      </c>
+      <c r="I15" t="s">
+        <v>287</v>
+      </c>
+      <c r="J15">
+        <v>555</v>
+      </c>
+      <c r="K15">
+        <v>76.243243243243199</v>
+      </c>
+      <c r="L15">
+        <v>46.300777807327101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
         <v>288</v>
       </c>
@@ -9068,14 +9471,739 @@
         <v>555</v>
       </c>
       <c r="D16">
-        <v>268.50990990990999</v>
+        <v>81.517117117117095</v>
       </c>
       <c r="E16">
-        <v>80.000098098941393</v>
+        <v>20.097173112785001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J16">
+        <v>555</v>
+      </c>
+      <c r="K16">
+        <v>135.10990990990999</v>
+      </c>
+      <c r="L16">
+        <v>56.183818595869099</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="4" spans="2:10" ht="270">
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5">
+        <v>555</v>
+      </c>
+      <c r="D5">
+        <v>0.37500862854518202</v>
+      </c>
+      <c r="E5">
+        <v>1.8348439842302101E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5">
+        <v>555</v>
+      </c>
+      <c r="I5">
+        <v>0.641747287834041</v>
+      </c>
+      <c r="J5">
+        <v>2.5705375030568901E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6">
+        <v>555</v>
+      </c>
+      <c r="D6">
+        <v>0.37474667266686001</v>
+      </c>
+      <c r="E6">
+        <v>1.8474552167892899E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6">
+        <v>555</v>
+      </c>
+      <c r="I6">
+        <v>0.64153474039387903</v>
+      </c>
+      <c r="J6">
+        <v>2.5721214558789798E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7">
+        <v>555</v>
+      </c>
+      <c r="D7">
+        <v>0.37297486395377899</v>
+      </c>
+      <c r="E7">
+        <v>1.8655043881923201E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7">
+        <v>555</v>
+      </c>
+      <c r="I7">
+        <v>0.64020545294550402</v>
+      </c>
+      <c r="J7">
+        <v>2.5736817154789302E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8">
+        <v>555</v>
+      </c>
+      <c r="D8">
+        <v>0.370665224803714</v>
+      </c>
+      <c r="E8">
+        <v>1.8710935780489699E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8">
+        <v>555</v>
+      </c>
+      <c r="I8">
+        <v>0.63711221303920296</v>
+      </c>
+      <c r="J8">
+        <v>2.5369000634895202E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9">
+        <v>555</v>
+      </c>
+      <c r="D9">
+        <v>0.36783145806623302</v>
+      </c>
+      <c r="E9">
+        <v>1.8543579205242699E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9">
+        <v>555</v>
+      </c>
+      <c r="I9">
+        <v>0.63141158365745897</v>
+      </c>
+      <c r="J9">
+        <v>2.55396333743713E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10">
+        <v>555</v>
+      </c>
+      <c r="D10">
+        <v>0.36521404080657399</v>
+      </c>
+      <c r="E10">
+        <v>1.8225092062964798E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10">
+        <v>555</v>
+      </c>
+      <c r="I10">
+        <v>0.62342770491607302</v>
+      </c>
+      <c r="J10">
+        <v>2.61789265193339E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>555</v>
+      </c>
+      <c r="D11">
+        <v>0.362972625641591</v>
+      </c>
+      <c r="E11">
+        <v>1.7880725304706399E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11">
+        <v>555</v>
+      </c>
+      <c r="I11">
+        <v>0.61543328481927495</v>
+      </c>
+      <c r="J11">
+        <v>2.60979664348297E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>555</v>
+      </c>
+      <c r="D12">
+        <v>0.36064800095570698</v>
+      </c>
+      <c r="E12">
+        <v>1.75995924570434E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12">
+        <v>555</v>
+      </c>
+      <c r="I12">
+        <v>0.60894539049907803</v>
+      </c>
+      <c r="J12">
+        <v>2.5471396727822299E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13">
+        <v>555</v>
+      </c>
+      <c r="D13">
+        <v>0.35826941950574298</v>
+      </c>
+      <c r="E13">
+        <v>1.7442002485932199E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H13">
+        <v>555</v>
+      </c>
+      <c r="I13">
+        <v>0.60471884053472502</v>
+      </c>
+      <c r="J13">
+        <v>2.48067134818672E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14">
+        <v>555</v>
+      </c>
+      <c r="D14">
+        <v>0.355292659938583</v>
+      </c>
+      <c r="E14">
+        <v>1.7432435324367002E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>302</v>
+      </c>
+      <c r="H14">
+        <v>555</v>
+      </c>
+      <c r="I14">
+        <v>0.59994798433824503</v>
+      </c>
+      <c r="J14">
+        <v>2.45376698462976E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="270">
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20">
+        <v>555</v>
+      </c>
+      <c r="D20">
+        <v>288.306306306306</v>
+      </c>
+      <c r="E20">
+        <v>94.871087985803001</v>
+      </c>
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="H20">
+        <v>555</v>
+      </c>
+      <c r="I20">
+        <v>40.9873873873874</v>
+      </c>
+      <c r="J20">
+        <v>40.046428643925999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21">
+        <v>555</v>
+      </c>
+      <c r="D21">
+        <v>288.45765765765799</v>
+      </c>
+      <c r="E21">
+        <v>94.801538424459807</v>
+      </c>
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="H21">
+        <v>555</v>
+      </c>
+      <c r="I21">
+        <v>37.731531531531502</v>
+      </c>
+      <c r="J21">
+        <v>37.346049771973902</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22">
+        <v>555</v>
+      </c>
+      <c r="D22">
+        <v>289.73513513513501</v>
+      </c>
+      <c r="E22">
+        <v>94.936346382073395</v>
+      </c>
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22">
+        <v>555</v>
+      </c>
+      <c r="I22">
+        <v>29.9873873873874</v>
+      </c>
+      <c r="J22">
+        <v>31.213163464904401</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23">
+        <v>555</v>
+      </c>
+      <c r="D23">
+        <v>290.28108108108103</v>
+      </c>
+      <c r="E23">
+        <v>94.688965952730697</v>
+      </c>
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="H23">
+        <v>555</v>
+      </c>
+      <c r="I23">
+        <v>21.025225225225199</v>
+      </c>
+      <c r="J23">
+        <v>24.4717344814832</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24">
+        <v>555</v>
+      </c>
+      <c r="D24">
+        <v>289.744144144144</v>
+      </c>
+      <c r="E24">
+        <v>94.223845047709901</v>
+      </c>
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="H24">
+        <v>555</v>
+      </c>
+      <c r="I24">
+        <v>10.5945945945946</v>
+      </c>
+      <c r="J24">
+        <v>15.867785394569999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25">
+        <v>555</v>
+      </c>
+      <c r="D25">
+        <v>288.83603603603598</v>
+      </c>
+      <c r="E25">
+        <v>93.706355224869299</v>
+      </c>
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25">
+        <v>555</v>
+      </c>
+      <c r="I25">
+        <v>0.65045045045045002</v>
+      </c>
+      <c r="J25">
+        <v>0.63329319121731897</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>555</v>
+      </c>
+      <c r="D26">
+        <v>287.60180180180203</v>
+      </c>
+      <c r="E26">
+        <v>93.485601877938905</v>
+      </c>
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26">
+        <v>555</v>
+      </c>
+      <c r="I26">
+        <v>0.63603603603603598</v>
+      </c>
+      <c r="J26">
+        <v>0.60455443400988296</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <v>555</v>
+      </c>
+      <c r="D27">
+        <v>284.94054054054101</v>
+      </c>
+      <c r="E27">
+        <v>92.779026302979403</v>
+      </c>
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="H27">
+        <v>555</v>
+      </c>
+      <c r="I27">
+        <v>0.63423423423423397</v>
+      </c>
+      <c r="J27">
+        <v>0.59896051585052201</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28">
+        <v>555</v>
+      </c>
+      <c r="D28">
+        <v>281.758558558559</v>
+      </c>
+      <c r="E28">
+        <v>91.768186669243406</v>
+      </c>
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28">
+        <v>555</v>
+      </c>
+      <c r="I28">
+        <v>0.63963963963963999</v>
+      </c>
+      <c r="J28">
+        <v>0.59469363518159601</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29">
+        <v>555</v>
+      </c>
+      <c r="D29">
+        <v>277.72432432432402</v>
+      </c>
+      <c r="E29">
+        <v>90.553500766795693</v>
+      </c>
+      <c r="G29" t="s">
+        <v>302</v>
+      </c>
+      <c r="H29">
+        <v>555</v>
+      </c>
+      <c r="I29">
+        <v>0.65765765765765805</v>
+      </c>
+      <c r="J29">
+        <v>0.61119955877005705</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35">
+        <v>555</v>
+      </c>
+      <c r="D35">
+        <v>633.72072072072103</v>
+      </c>
+      <c r="E35">
+        <v>145.984765733259</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36">
+        <v>555</v>
+      </c>
+      <c r="D36">
+        <v>596.92972972972996</v>
+      </c>
+      <c r="E36">
+        <v>137.130233097407</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37">
+        <v>555</v>
+      </c>
+      <c r="D37">
+        <v>536.10630630630601</v>
+      </c>
+      <c r="E37">
+        <v>121.34036866789999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38">
+        <v>555</v>
+      </c>
+      <c r="D38">
+        <v>430.94054054054101</v>
+      </c>
+      <c r="E38">
+        <v>95.306810643006799</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39">
+        <v>555</v>
+      </c>
+      <c r="D39">
+        <v>326.15315315315303</v>
+      </c>
+      <c r="E39">
+        <v>66.984776302419405</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40">
+        <v>555</v>
+      </c>
+      <c r="D40">
+        <v>232.49189189189201</v>
+      </c>
+      <c r="E40">
+        <v>42.480038070850703</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41">
+        <v>555</v>
+      </c>
+      <c r="D41">
+        <v>187.09009009009</v>
+      </c>
+      <c r="E41">
+        <v>34.547761516546103</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42">
+        <v>555</v>
+      </c>
+      <c r="D42">
+        <v>155.769369369369</v>
+      </c>
+      <c r="E42">
+        <v>32.276571044803603</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>301</v>
+      </c>
+      <c r="C43">
+        <v>555</v>
+      </c>
+      <c r="D43">
+        <v>152.12072072072101</v>
+      </c>
+      <c r="E43">
+        <v>41.639568096326101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44">
+        <v>555</v>
+      </c>
+      <c r="D44">
+        <v>217.67387387387399</v>
+      </c>
+      <c r="E44">
+        <v>55.118414882448697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/write-ups/cikm/clustering.xlsx
+++ b/write-ups/cikm/clustering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="28560" windowHeight="15400" tabRatio="500" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="2020" yWindow="980" windowWidth="28560" windowHeight="15520" tabRatio="500" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="jaccard+May5th (2)" sheetId="19" r:id="rId1"/>
@@ -1565,7 +1565,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1642,11 +1641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088722984"/>
-        <c:axId val="2088725928"/>
+        <c:axId val="2142365352"/>
+        <c:axId val="2142368296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088722984"/>
+        <c:axId val="2142365352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088725928"/>
+        <c:crossAx val="2142368296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1663,7 +1662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088725928"/>
+        <c:axId val="2142368296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,14 +1673,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088722984"/>
+        <c:crossAx val="2142365352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1830,25 +1828,24 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091424472"/>
-        <c:axId val="2105327704"/>
+        <c:axId val="2133974184"/>
+        <c:axId val="2125233736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091424472"/>
+        <c:axId val="2133974184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105327704"/>
+        <c:crossAx val="2125233736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1856,7 +1853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105327704"/>
+        <c:axId val="2125233736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,21 +1861,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091424472"/>
+        <c:crossAx val="2133974184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1984,11 +1979,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2113453912"/>
-        <c:axId val="2113448376"/>
+        <c:axId val="2134609672"/>
+        <c:axId val="2134235208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2113453912"/>
+        <c:axId val="2134609672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +1992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113448376"/>
+        <c:crossAx val="2134235208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113448376"/>
+        <c:axId val="2134235208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113453912"/>
+        <c:crossAx val="2134609672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2279,11 +2274,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2112139992"/>
-        <c:axId val="2112142968"/>
+        <c:axId val="2142503352"/>
+        <c:axId val="2142506472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112139992"/>
+        <c:axId val="2142503352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2288,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112142968"/>
+        <c:crossAx val="2142506472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2301,7 +2296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112142968"/>
+        <c:axId val="2142506472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112139992"/>
+        <c:crossAx val="2142503352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2424,11 +2419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084576696"/>
-        <c:axId val="2089862776"/>
+        <c:axId val="2144515912"/>
+        <c:axId val="2144518872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084576696"/>
+        <c:axId val="2144515912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089862776"/>
+        <c:crossAx val="2144518872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2445,7 +2440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089862776"/>
+        <c:axId val="2144518872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,14 +2451,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084576696"/>
+        <c:crossAx val="2144515912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2691,11 +2685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089878984"/>
-        <c:axId val="2089881928"/>
+        <c:axId val="2144562824"/>
+        <c:axId val="2144565800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089878984"/>
+        <c:axId val="2144562824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,7 +2699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089881928"/>
+        <c:crossAx val="2144565800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2713,7 +2707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089881928"/>
+        <c:axId val="2144565800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2724,14 +2718,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089878984"/>
+        <c:crossAx val="2144562824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2870,11 +2863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089933304"/>
-        <c:axId val="2089936280"/>
+        <c:axId val="2134300088"/>
+        <c:axId val="2134494264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089933304"/>
+        <c:axId val="2134300088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,7 +2876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089936280"/>
+        <c:crossAx val="2134494264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2891,7 +2884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089936280"/>
+        <c:axId val="2134494264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,7 +2895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089933304"/>
+        <c:crossAx val="2134300088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2997,11 +2990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089398232"/>
-        <c:axId val="2089401192"/>
+        <c:axId val="2124757592"/>
+        <c:axId val="2103362360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089398232"/>
+        <c:axId val="2124757592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,7 +3003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089401192"/>
+        <c:crossAx val="2103362360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3018,7 +3011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089401192"/>
+        <c:axId val="2103362360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089398232"/>
+        <c:crossAx val="2124757592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3219,11 +3212,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2089944120"/>
-        <c:axId val="2089947240"/>
+        <c:axId val="2144227944"/>
+        <c:axId val="2144231064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2089944120"/>
+        <c:axId val="2144227944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3232,7 +3225,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089947240"/>
+        <c:crossAx val="2144231064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3240,7 +3233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089947240"/>
+        <c:axId val="2144231064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,7 +3243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089944120"/>
+        <c:crossAx val="2144227944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3333,11 +3326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089994584"/>
-        <c:axId val="2089997592"/>
+        <c:axId val="2144594952"/>
+        <c:axId val="2144597960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089994584"/>
+        <c:axId val="2144594952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3346,7 +3339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089997592"/>
+        <c:crossAx val="2144597960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3354,7 +3347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089997592"/>
+        <c:axId val="2144597960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3365,7 +3358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089994584"/>
+        <c:crossAx val="2144594952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3510,11 +3503,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2053792936"/>
-        <c:axId val="2053796056"/>
+        <c:axId val="2144630968"/>
+        <c:axId val="2144634088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2053792936"/>
+        <c:axId val="2144630968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,7 +3516,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053796056"/>
+        <c:crossAx val="2144634088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3531,7 +3524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053796056"/>
+        <c:axId val="2144634088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3534,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053792936"/>
+        <c:crossAx val="2144630968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3747,11 +3740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106072792"/>
-        <c:axId val="2088715176"/>
+        <c:axId val="2142403064"/>
+        <c:axId val="2142406040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106072792"/>
+        <c:axId val="2142403064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,7 +3754,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088715176"/>
+        <c:crossAx val="2142406040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3769,7 +3762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088715176"/>
+        <c:axId val="2142406040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,14 +3772,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106072792"/>
+        <c:crossAx val="2142403064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3973,11 +3965,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2053822904"/>
-        <c:axId val="2053826024"/>
+        <c:axId val="2144664136"/>
+        <c:axId val="2144667256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2053822904"/>
+        <c:axId val="2144664136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3986,7 +3978,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053826024"/>
+        <c:crossAx val="2144667256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3994,7 +3986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053826024"/>
+        <c:axId val="2144667256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +3996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053822904"/>
+        <c:crossAx val="2144664136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4120,11 +4112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2053861512"/>
-        <c:axId val="2053864472"/>
+        <c:axId val="2144698312"/>
+        <c:axId val="2144701256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2053861512"/>
+        <c:axId val="2144698312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053864472"/>
+        <c:crossAx val="2144701256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4141,7 +4133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053864472"/>
+        <c:axId val="2144701256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4152,7 +4144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053861512"/>
+        <c:crossAx val="2144698312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4247,11 +4239,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2052017080"/>
-        <c:axId val="2052020024"/>
+        <c:axId val="2134555896"/>
+        <c:axId val="2134463816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2052017080"/>
+        <c:axId val="2134555896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4260,7 +4252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052020024"/>
+        <c:crossAx val="2134463816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4268,7 +4260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052020024"/>
+        <c:axId val="2134463816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,7 +4271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052017080"/>
+        <c:crossAx val="2134555896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4374,11 +4366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2052044888"/>
-        <c:axId val="2051061928"/>
+        <c:axId val="2134877992"/>
+        <c:axId val="2102398584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2052044888"/>
+        <c:axId val="2134877992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4387,7 +4379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051061928"/>
+        <c:crossAx val="2102398584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4395,7 +4387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051061928"/>
+        <c:axId val="2102398584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4406,7 +4398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052044888"/>
+        <c:crossAx val="2134877992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4498,11 +4490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089439784"/>
-        <c:axId val="2089442744"/>
+        <c:axId val="2142572680"/>
+        <c:axId val="2142575624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089439784"/>
+        <c:axId val="2142572680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4511,7 +4503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089442744"/>
+        <c:crossAx val="2142575624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4519,7 +4511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089442744"/>
+        <c:axId val="2142575624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4530,7 +4522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089439784"/>
+        <c:crossAx val="2142572680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4622,11 +4614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089466536"/>
-        <c:axId val="2089469496"/>
+        <c:axId val="2142599992"/>
+        <c:axId val="2142602936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089466536"/>
+        <c:axId val="2142599992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4635,7 +4627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089469496"/>
+        <c:crossAx val="2142602936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4643,7 +4635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089469496"/>
+        <c:axId val="2142602936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,7 +4646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089466536"/>
+        <c:crossAx val="2142599992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4793,11 +4785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090049880"/>
-        <c:axId val="2090052856"/>
+        <c:axId val="2142640248"/>
+        <c:axId val="2142643224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090049880"/>
+        <c:axId val="2142640248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4806,7 +4798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090052856"/>
+        <c:crossAx val="2142643224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4814,7 +4806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090052856"/>
+        <c:axId val="2142643224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4825,14 +4817,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090049880"/>
+        <c:crossAx val="2142640248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4915,8 +4906,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2051015768"/>
-        <c:axId val="2090910584"/>
+        <c:axId val="2144279768"/>
+        <c:axId val="2144282744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5081,11 +5072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2051015768"/>
-        <c:axId val="2090910584"/>
+        <c:axId val="2144279768"/>
+        <c:axId val="2144282744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2051015768"/>
+        <c:axId val="2144279768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,7 +5086,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090910584"/>
+        <c:crossAx val="2144282744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5103,7 +5094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090910584"/>
+        <c:axId val="2144282744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5114,7 +5105,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051015768"/>
+        <c:crossAx val="2144279768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5327,8 +5318,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2119225064"/>
-        <c:axId val="2119228040"/>
+        <c:axId val="2143396920"/>
+        <c:axId val="2143393704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5500,11 +5491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119225064"/>
-        <c:axId val="2119228040"/>
+        <c:axId val="2143396920"/>
+        <c:axId val="2143393704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119225064"/>
+        <c:axId val="2143396920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5519,7 +5510,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2119228040"/>
+        <c:crossAx val="2143393704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5527,7 +5518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119228040"/>
+        <c:axId val="2143393704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5537,7 +5528,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119225064"/>
+        <c:crossAx val="2143396920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5687,8 +5678,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2120016392"/>
-        <c:axId val="2120448456"/>
+        <c:axId val="2143358936"/>
+        <c:axId val="2143355800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5853,11 +5844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120016392"/>
-        <c:axId val="2120448456"/>
+        <c:axId val="2143358936"/>
+        <c:axId val="2143355800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120016392"/>
+        <c:axId val="2143358936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5867,7 +5858,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120448456"/>
+        <c:crossAx val="2143355800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5875,7 +5866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120448456"/>
+        <c:axId val="2143355800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5886,7 +5877,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120016392"/>
+        <c:crossAx val="2143358936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6045,11 +6036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106560664"/>
-        <c:axId val="2106570632"/>
+        <c:axId val="2142431752"/>
+        <c:axId val="2142434728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106560664"/>
+        <c:axId val="2142431752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6058,7 +6049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106570632"/>
+        <c:crossAx val="2142434728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6066,7 +6057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106570632"/>
+        <c:axId val="2142434728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6077,14 +6068,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106560664"/>
+        <c:crossAx val="2142431752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6206,8 +6196,8 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2053895848"/>
-        <c:axId val="2053692728"/>
+        <c:axId val="2144729464"/>
+        <c:axId val="2144732440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6293,11 +6283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2053895848"/>
-        <c:axId val="2053692728"/>
+        <c:axId val="2144729464"/>
+        <c:axId val="2144732440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2053895848"/>
+        <c:axId val="2144729464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6306,7 +6296,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053692728"/>
+        <c:crossAx val="2144732440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6314,7 +6304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053692728"/>
+        <c:axId val="2144732440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6330,7 +6320,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2053895848"/>
+        <c:crossAx val="2144729464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6538,11 +6528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090076456"/>
-        <c:axId val="2090079432"/>
+        <c:axId val="2143316600"/>
+        <c:axId val="2143313608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090076456"/>
+        <c:axId val="2143316600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6551,7 +6541,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090079432"/>
+        <c:crossAx val="2143313608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6559,7 +6549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090079432"/>
+        <c:axId val="2143313608"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6587,21 +6577,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090076456"/>
+        <c:crossAx val="2143316600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6811,11 +6799,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090119432"/>
-        <c:axId val="2090122408"/>
+        <c:axId val="2144785976"/>
+        <c:axId val="2144788952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090119432"/>
+        <c:axId val="2144785976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6824,7 +6812,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090122408"/>
+        <c:crossAx val="2144788952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6832,7 +6820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090122408"/>
+        <c:axId val="2144788952"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6856,21 +6844,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090119432"/>
+        <c:crossAx val="2144785976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6984,11 +6970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090160664"/>
-        <c:axId val="2090163672"/>
+        <c:axId val="2144827192"/>
+        <c:axId val="2144830200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090160664"/>
+        <c:axId val="2144827192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6997,7 +6983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090163672"/>
+        <c:crossAx val="2144830200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7005,7 +6991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090163672"/>
+        <c:axId val="2144830200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7016,14 +7002,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090160664"/>
+        <c:crossAx val="2144827192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7166,25 +7151,24 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106814968"/>
-        <c:axId val="2106810968"/>
+        <c:axId val="2142460136"/>
+        <c:axId val="2142465288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106814968"/>
+        <c:axId val="2142460136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106810968"/>
+        <c:crossAx val="2142465288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7192,7 +7176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106810968"/>
+        <c:axId val="2142465288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7200,21 +7184,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106814968"/>
+        <c:crossAx val="2142460136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7244,7 +7226,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7318,11 +7299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2106930472"/>
-        <c:axId val="2106933416"/>
+        <c:axId val="2144102904"/>
+        <c:axId val="2144105304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106930472"/>
+        <c:axId val="2144102904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7331,7 +7312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106933416"/>
+        <c:crossAx val="2144105304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7339,7 +7320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106933416"/>
+        <c:axId val="2144105304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7350,14 +7331,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106930472"/>
+        <c:crossAx val="2144102904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7605,11 +7585,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2106775096"/>
-        <c:axId val="2106783144"/>
+        <c:axId val="2144147784"/>
+        <c:axId val="2144150904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106775096"/>
+        <c:axId val="2144147784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7619,7 +7599,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106783144"/>
+        <c:crossAx val="2144150904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7627,7 +7607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106783144"/>
+        <c:axId val="2144150904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7638,7 +7618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106775096"/>
+        <c:crossAx val="2144147784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7649,7 +7629,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7692,7 +7671,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7772,11 +7750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113969784"/>
-        <c:axId val="2114960120"/>
+        <c:axId val="2144158696"/>
+        <c:axId val="2144161752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113969784"/>
+        <c:axId val="2144158696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7785,7 +7763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114960120"/>
+        <c:crossAx val="2144161752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7793,7 +7771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114960120"/>
+        <c:axId val="2144161752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7804,14 +7782,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113969784"/>
+        <c:crossAx val="2144158696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8020,11 +7997,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107663144"/>
-        <c:axId val="2107660152"/>
+        <c:axId val="2134684648"/>
+        <c:axId val="2134687624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107663144"/>
+        <c:axId val="2134684648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8034,7 +8011,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107660152"/>
+        <c:crossAx val="2134687624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8042,7 +8019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107660152"/>
+        <c:axId val="2134687624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8052,7 +8029,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107663144"/>
+        <c:crossAx val="2134684648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8203,11 +8180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114875544"/>
-        <c:axId val="2114864216"/>
+        <c:axId val="2134122808"/>
+        <c:axId val="2134548952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114875544"/>
+        <c:axId val="2134122808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8216,7 +8193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114864216"/>
+        <c:crossAx val="2134548952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8224,7 +8201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114864216"/>
+        <c:axId val="2134548952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8235,14 +8212,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114875544"/>
+        <c:crossAx val="2134122808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9786,7 +9762,7 @@
         <v>31.1547283342925</v>
       </c>
       <c r="P5">
-        <f>N5-S5</f>
+        <f t="shared" ref="P5:P14" si="0">N5-S5</f>
         <v>169.818957345972</v>
       </c>
       <c r="Q5" t="s">
@@ -9814,7 +9790,7 @@
         <v>31.223561856728899</v>
       </c>
       <c r="Z5">
-        <f>AC5-P5</f>
+        <f t="shared" ref="Z5:Z14" si="1">AC5-P5</f>
         <v>191.24067119752803</v>
       </c>
       <c r="AA5" t="s">
@@ -9895,7 +9871,7 @@
         <v>31.1157426881209</v>
       </c>
       <c r="P6">
-        <f>N6-S6</f>
+        <f t="shared" si="0"/>
         <v>170.22128060263699</v>
       </c>
       <c r="Q6" t="s">
@@ -9923,7 +9899,7 @@
         <v>31.174880247541001</v>
       </c>
       <c r="Z6">
-        <f>AC6-P6</f>
+        <f t="shared" si="1"/>
         <v>188.18727970864703</v>
       </c>
       <c r="AA6" t="s">
@@ -10004,7 +9980,7 @@
         <v>31.061159424387199</v>
       </c>
       <c r="P7">
-        <f>N7-S7</f>
+        <f t="shared" si="0"/>
         <v>170.62265917603</v>
       </c>
       <c r="Q7" t="s">
@@ -10032,7 +10008,7 @@
         <v>31.0971189301297</v>
       </c>
       <c r="Z7">
-        <f>AC7-P7</f>
+        <f t="shared" si="1"/>
         <v>172.58852693776001</v>
       </c>
       <c r="AA7" t="s">
@@ -10113,7 +10089,7 @@
         <v>31.097718156770501</v>
       </c>
       <c r="P8">
-        <f>N8-S8</f>
+        <f t="shared" si="0"/>
         <v>170.460588793922</v>
       </c>
       <c r="Q8" t="s">
@@ -10141,7 +10117,7 @@
         <v>31.172301952642901</v>
       </c>
       <c r="Z8">
-        <f>AC8-P8</f>
+        <f t="shared" si="1"/>
         <v>151.951348583769</v>
       </c>
       <c r="AA8" t="s">
@@ -10222,7 +10198,7 @@
         <v>31.218127649199399</v>
       </c>
       <c r="P9">
-        <f>N9-S9</f>
+        <f t="shared" si="0"/>
         <v>170.78852964912434</v>
       </c>
       <c r="Q9" t="s">
@@ -10250,7 +10226,7 @@
         <v>31.263035655302701</v>
       </c>
       <c r="Z9">
-        <f>AC9-P9</f>
+        <f t="shared" si="1"/>
         <v>126.27526021954364</v>
       </c>
       <c r="AA9" t="s">
@@ -10331,7 +10307,7 @@
         <v>31.225605545598601</v>
       </c>
       <c r="P10">
-        <f>N10-S10</f>
+        <f t="shared" si="0"/>
         <v>171.37906928800359</v>
       </c>
       <c r="Q10" t="s">
@@ -10359,7 +10335,7 @@
         <v>31.2175776700625</v>
       </c>
       <c r="Z10">
-        <f>AC10-P10</f>
+        <f t="shared" si="1"/>
         <v>93.344603079233394</v>
       </c>
       <c r="AA10" t="s">
@@ -10440,7 +10416,7 @@
         <v>31.0642762203363</v>
       </c>
       <c r="P11">
-        <f>N11-S11</f>
+        <f t="shared" si="0"/>
         <v>172.73538246742299</v>
       </c>
       <c r="Q11" t="s">
@@ -10468,7 +10444,7 @@
         <v>31.191681095751498</v>
       </c>
       <c r="Z11">
-        <f>AC11-P11</f>
+        <f t="shared" si="1"/>
         <v>58.022039076258011</v>
       </c>
       <c r="AA11" t="s">
@@ -10549,7 +10525,7 @@
         <v>31.313311880420802</v>
       </c>
       <c r="P12">
-        <f>N12-S12</f>
+        <f t="shared" si="0"/>
         <v>174.72509249402873</v>
       </c>
       <c r="Q12" t="s">
@@ -10577,7 +10553,7 @@
         <v>31.250458530683701</v>
       </c>
       <c r="Z12">
-        <f>AC12-P12</f>
+        <f t="shared" si="1"/>
         <v>12.973343842531278</v>
       </c>
       <c r="AA12" t="s">
@@ -10658,7 +10634,7 @@
         <v>31.866269618136698</v>
       </c>
       <c r="P13">
-        <f>N13-S13</f>
+        <f t="shared" si="0"/>
         <v>179.77383994005532</v>
       </c>
       <c r="Q13" t="s">
@@ -10686,7 +10662,7 @@
         <v>31.911433069194601</v>
       </c>
       <c r="Z13">
-        <f>AC13-P13</f>
+        <f t="shared" si="1"/>
         <v>-65.93668397675232</v>
       </c>
       <c r="AA13" t="s">
@@ -10767,7 +10743,7 @@
         <v>31.287145736200099</v>
       </c>
       <c r="P14">
-        <f>N14-S14</f>
+        <f t="shared" si="0"/>
         <v>189.5381651961693</v>
       </c>
       <c r="Q14" t="s">
@@ -10795,7 +10771,7 @@
         <v>31.264555195833601</v>
       </c>
       <c r="Z14">
-        <f>AC14-P14</f>
+        <f t="shared" si="1"/>
         <v>-127.4415445393392</v>
       </c>
       <c r="AA14" t="s">
@@ -10880,49 +10856,49 @@
     </row>
     <row r="17" spans="26:47">
       <c r="Z17" s="4">
-        <f>P5/AC5</f>
+        <f t="shared" ref="Z17:Z24" si="2">P5/AC5</f>
         <v>0.47033493617388022</v>
       </c>
     </row>
     <row r="18" spans="26:47">
       <c r="Z18" s="4">
-        <f>P6/AC6</f>
+        <f t="shared" si="2"/>
         <v>0.47493642577843809</v>
       </c>
     </row>
     <row r="19" spans="26:47">
       <c r="Z19" s="4">
-        <f>P7/AC7</f>
+        <f t="shared" si="2"/>
         <v>0.49713606688641226</v>
       </c>
     </row>
     <row r="20" spans="26:47">
       <c r="Z20" s="4">
-        <f>P8/AC8</f>
+        <f t="shared" si="2"/>
         <v>0.52870433452417465</v>
       </c>
     </row>
     <row r="21" spans="26:47">
       <c r="Z21" s="4">
-        <f>P9/AC9</f>
+        <f t="shared" si="2"/>
         <v>0.5749220722075552</v>
       </c>
     </row>
     <row r="22" spans="26:47">
       <c r="Z22" s="4">
-        <f>P10/AC10</f>
+        <f t="shared" si="2"/>
         <v>0.64738853067231017</v>
       </c>
     </row>
     <row r="23" spans="26:47">
       <c r="Z23" s="4">
-        <f>P11/AC11</f>
+        <f t="shared" si="2"/>
         <v>0.7485582968984823</v>
       </c>
     </row>
     <row r="24" spans="26:47">
       <c r="Z24" s="4">
-        <f>P12/AC12</f>
+        <f t="shared" si="2"/>
         <v>0.93088198231300701</v>
       </c>
     </row>
@@ -14282,8 +14258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16675,7 +16651,7 @@
         <v>63.7310323226232</v>
       </c>
       <c r="P5">
-        <f>N5-S5</f>
+        <f t="shared" ref="P5:P15" si="0">N5-S5</f>
         <v>207.30926143024587</v>
       </c>
       <c r="Q5" t="s">
@@ -16703,7 +16679,7 @@
         <v>17.046190698738801</v>
       </c>
       <c r="Z5">
-        <f>AC5-P5</f>
+        <f t="shared" ref="Z5:Z15" si="1">AC5-P5</f>
         <v>146.29800703399812</v>
       </c>
       <c r="AA5" t="s">
@@ -16784,7 +16760,7 @@
         <v>61.532106351598898</v>
       </c>
       <c r="P6">
-        <f>N6-S6</f>
+        <f t="shared" si="0"/>
         <v>207.03587338804232</v>
       </c>
       <c r="Q6" t="s">
@@ -16812,7 +16788,7 @@
         <v>16.769014026125799</v>
       </c>
       <c r="Z6">
-        <f>AC6-P6</f>
+        <f t="shared" si="1"/>
         <v>146.30128956623668</v>
       </c>
       <c r="AA6" t="s">
@@ -16893,7 +16869,7 @@
         <v>54.759674823189201</v>
       </c>
       <c r="P7">
-        <f>N7-S7</f>
+        <f t="shared" si="0"/>
         <v>205.34466588511089</v>
       </c>
       <c r="Q7" t="s">
@@ -16921,7 +16897,7 @@
         <v>16.267685097752299</v>
       </c>
       <c r="Z7">
-        <f>AC7-P7</f>
+        <f t="shared" si="1"/>
         <v>145.49660023446711</v>
       </c>
       <c r="AA7" t="s">
@@ -17002,7 +16978,7 @@
         <v>48.833379503146702</v>
       </c>
       <c r="P8">
-        <f>N8-S8</f>
+        <f t="shared" si="0"/>
         <v>198.98640093786642</v>
       </c>
       <c r="Q8" t="s">
@@ -17030,7 +17006,7 @@
         <v>15.7412737264897</v>
       </c>
       <c r="Z8">
-        <f>AC8-P8</f>
+        <f t="shared" si="1"/>
         <v>141.08769050410356</v>
       </c>
       <c r="AA8" t="s">
@@ -17111,7 +17087,7 @@
         <v>42.661657246848897</v>
       </c>
       <c r="P9">
-        <f>N9-S9</f>
+        <f t="shared" si="0"/>
         <v>188.89472450175805</v>
       </c>
       <c r="Q9" t="s">
@@ -17139,7 +17115,7 @@
         <v>15.004162700003</v>
       </c>
       <c r="Z9">
-        <f>AC9-P9</f>
+        <f t="shared" si="1"/>
         <v>134.57069167643698</v>
       </c>
       <c r="AA9" t="s">
@@ -17220,7 +17196,7 @@
         <v>39.511061137313398</v>
       </c>
       <c r="P10">
-        <f>N10-S10</f>
+        <f t="shared" si="0"/>
         <v>176.97749203401457</v>
       </c>
       <c r="Q10" t="s">
@@ -17248,7 +17224,7 @@
         <v>14.3594522113283</v>
       </c>
       <c r="Z10">
-        <f>AC10-P10</f>
+        <f t="shared" si="1"/>
         <v>127.16687168756943</v>
       </c>
       <c r="AA10" t="s">
@@ -17329,7 +17305,7 @@
         <v>35.671295544680902</v>
       </c>
       <c r="P11">
-        <f>N11-S11</f>
+        <f t="shared" si="0"/>
         <v>161.38616647127824</v>
       </c>
       <c r="Q11" t="s">
@@ -17357,7 +17333,7 @@
         <v>13.4891212409829</v>
       </c>
       <c r="Z11">
-        <f>AC11-P11</f>
+        <f t="shared" si="1"/>
         <v>117.63282532239074</v>
       </c>
       <c r="AA11" t="s">
@@ -17438,7 +17414,7 @@
         <v>32.397968254699997</v>
       </c>
       <c r="P12">
-        <f>N12-S12</f>
+        <f t="shared" si="0"/>
         <v>140.91418522860451</v>
       </c>
       <c r="Q12" t="s">
@@ -17466,7 +17442,7 @@
         <v>12.475575305080699</v>
       </c>
       <c r="Z12">
-        <f>AC12-P12</f>
+        <f t="shared" si="1"/>
         <v>107.84056271981248</v>
       </c>
       <c r="AA12" t="s">
@@ -17547,7 +17523,7 @@
         <v>26.664449460758501</v>
       </c>
       <c r="P13">
-        <f>N13-S13</f>
+        <f t="shared" si="0"/>
         <v>110.1652989449002</v>
       </c>
       <c r="Q13" t="s">
@@ -17575,7 +17551,7 @@
         <v>10.6022729291426</v>
       </c>
       <c r="Z13">
-        <f>AC13-P13</f>
+        <f t="shared" si="1"/>
         <v>96.570457209847802</v>
       </c>
       <c r="AA13" t="s">
@@ -17656,7 +17632,7 @@
         <v>20.602359548738999</v>
       </c>
       <c r="P14">
-        <f>N14-S14</f>
+        <f t="shared" si="0"/>
         <v>63.656037514654194</v>
       </c>
       <c r="Q14" t="s">
@@ -17684,7 +17660,7 @@
         <v>6.8957152585864696</v>
       </c>
       <c r="Z14">
-        <f>AC14-P14</f>
+        <f t="shared" si="1"/>
         <v>64.217584994137809</v>
       </c>
       <c r="AA14" t="s">
@@ -17765,7 +17741,7 @@
         <v>18.362197336857601</v>
       </c>
       <c r="P15">
-        <f>N15-S15</f>
+        <f t="shared" si="0"/>
         <v>32.701289566236795</v>
       </c>
       <c r="Q15" t="s">
@@ -17793,7 +17769,7 @@
         <v>4.4792909639774896</v>
       </c>
       <c r="Z15">
-        <f>AC15-P15</f>
+        <f t="shared" si="1"/>
         <v>37.564126611957803</v>
       </c>
       <c r="AA15" t="s">
@@ -17840,67 +17816,67 @@
     </row>
     <row r="17" spans="26:47">
       <c r="Z17" s="4">
-        <f>P5/AC5</f>
+        <f t="shared" ref="Z17:Z27" si="2">P5/AC5</f>
         <v>0.5862697968020093</v>
       </c>
     </row>
     <row r="18" spans="26:47">
       <c r="Z18" s="4">
-        <f>P6/AC6</f>
+        <f t="shared" si="2"/>
         <v>0.58594423427470688</v>
       </c>
     </row>
     <row r="19" spans="26:47">
       <c r="Z19" s="4">
-        <f>P7/AC7</f>
+        <f t="shared" si="2"/>
         <v>0.58529222675625281</v>
       </c>
     </row>
     <row r="20" spans="26:47">
       <c r="Z20" s="4">
-        <f>P8/AC8</f>
+        <f t="shared" si="2"/>
         <v>0.5851266119513292</v>
       </c>
     </row>
     <row r="21" spans="26:47">
       <c r="Z21" s="4">
-        <f>P9/AC9</f>
+        <f t="shared" si="2"/>
         <v>0.58397193348700116</v>
       </c>
     </row>
     <row r="22" spans="26:47">
       <c r="Z22" s="4">
-        <f>P10/AC10</f>
+        <f t="shared" si="2"/>
         <v>0.58188647610784294</v>
       </c>
     </row>
     <row r="23" spans="26:47">
       <c r="Z23" s="4">
-        <f>P11/AC11</f>
+        <f t="shared" si="2"/>
         <v>0.5784056684952158</v>
       </c>
     </row>
     <row r="24" spans="26:47">
       <c r="Z24" s="4">
-        <f>P12/AC12</f>
+        <f t="shared" si="2"/>
         <v>0.56647837434574377</v>
       </c>
     </row>
     <row r="25" spans="26:47">
       <c r="Z25" s="4">
-        <f>P13/AC13</f>
+        <f t="shared" si="2"/>
         <v>0.53287975430064516</v>
       </c>
     </row>
     <row r="26" spans="26:47">
       <c r="Z26" s="4">
-        <f>P14/AC14</f>
+        <f t="shared" si="2"/>
         <v>0.49780428727807019</v>
       </c>
     </row>
     <row r="27" spans="26:47">
       <c r="Z27" s="4">
-        <f>P15/AC15</f>
+        <f t="shared" si="2"/>
         <v>0.4653966537863467</v>
       </c>
     </row>
